--- a/Idee per dim contatore.xlsx
+++ b/Idee per dim contatore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fportogallo\Documents\GitHub\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC96291-AFDD-4426-A4F5-19153E75A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C27DA-0078-4670-BAD9-5FB9FEBF6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B793FE88-29EE-4917-9027-ECF0D4794A0F}"/>
   </bookViews>
